--- a/Demographics-Apnoea.xlsx
+++ b/Demographics-Apnoea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmedal-saber/Desktop/Hessa Al-Jarrallah/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1C9864F-37BE-C445-8040-C078169BBC91}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D568F9-2801-7942-A2ED-9A435309617C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32020" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,81 +25,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
-  <si>
-    <t>Participant ID.</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>BMI Pre</t>
-  </si>
-  <si>
-    <t>BMI Post</t>
-  </si>
-  <si>
-    <t>Menopause</t>
-  </si>
-  <si>
-    <t>Season Pre</t>
-  </si>
-  <si>
-    <t>Season Post</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age </t>
-  </si>
-  <si>
-    <t>age post</t>
-  </si>
-  <si>
-    <t>AHI (/hr)</t>
-  </si>
-  <si>
-    <t>Sleep Efficiency (%)</t>
-  </si>
-  <si>
-    <t>SpO2 Awake Average (%)</t>
-  </si>
-  <si>
-    <t>Lowest SpO2 (%)</t>
-  </si>
-  <si>
-    <t>Arousal Index (hr)</t>
-  </si>
-  <si>
-    <t>Average Spo2 Desaturation (%)</t>
-  </si>
-  <si>
-    <t>Max. day temp. Pre.</t>
-  </si>
-  <si>
-    <t>Min. day temp. Pre.</t>
-  </si>
-  <si>
-    <t>Max. day temp. Post</t>
-  </si>
-  <si>
-    <t>Min. day temp. Post</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Apnoea</t>
+    <t>ID</t>
   </si>
   <si>
-    <t>CPAP usage  30 days before followup</t>
+    <t>Age1</t>
   </si>
   <si>
-    <t>AHI CPAP usage  30 days before followup</t>
+    <t>Age2</t>
   </si>
   <si>
-    <t>CPAP usage  14 days before followup</t>
+    <t>Sex</t>
   </si>
   <si>
-    <t>AHI CPAP usage  14 days before followup</t>
+    <t>Meno</t>
+  </si>
+  <si>
+    <t>BMI1</t>
+  </si>
+  <si>
+    <t>BMI2</t>
+  </si>
+  <si>
+    <t>AHI</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Arousal</t>
+  </si>
+  <si>
+    <t>SpO_A</t>
+  </si>
+  <si>
+    <t>SpO_D</t>
+  </si>
+  <si>
+    <t>SpO_L</t>
+  </si>
+  <si>
+    <t>CPAP_30</t>
+  </si>
+  <si>
+    <t>CPAP_30_AHI</t>
+  </si>
+  <si>
+    <t>CPAP_14</t>
+  </si>
+  <si>
+    <t>CPAP_14_AHI</t>
+  </si>
+  <si>
+    <t>Season1</t>
+  </si>
+  <si>
+    <t>Season2</t>
+  </si>
+  <si>
+    <t>MAX_T1</t>
+  </si>
+  <si>
+    <t>MIN_T1</t>
+  </si>
+  <si>
+    <t>MAX_T2</t>
+  </si>
+  <si>
+    <t>MIN_T2</t>
   </si>
 </sst>
 </file>
@@ -155,14 +152,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -450,14 +444,14 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="B13" sqref="B13:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="4" customWidth="1"/>
     <col min="10" max="10" width="18.6640625" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
     <col min="12" max="12" width="24.5" customWidth="1"/>
@@ -473,84 +467,84 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="X1" t="s">
         <v>23</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="C2">
         <v>62</v>
@@ -567,7 +561,7 @@
       <c r="H2">
         <v>34</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>26.8</v>
       </c>
       <c r="J2" s="1">
@@ -585,16 +579,16 @@
       <c r="N2" s="2">
         <v>0.8</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>42</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>1.8</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>0.4</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="5">
         <v>1.5</v>
       </c>
       <c r="S2">
@@ -620,8 +614,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3">
         <v>57</v>
@@ -635,7 +629,7 @@
       <c r="G3">
         <v>30.3</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>18.399999999999999</v>
       </c>
       <c r="J3" s="1">
@@ -650,10 +644,10 @@
       <c r="N3" s="2">
         <v>0.79</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
       <c r="S3">
         <v>3</v>
       </c>
@@ -668,8 +662,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="C4">
         <v>40</v>
@@ -689,7 +683,7 @@
       <c r="H4">
         <v>26.6</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>14.2</v>
       </c>
       <c r="J4" s="1">
@@ -705,10 +699,10 @@
       <c r="N4" s="2">
         <v>0.86</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
       <c r="S4">
         <v>3</v>
       </c>
@@ -732,8 +726,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="B5">
+        <v>2</v>
       </c>
       <c r="C5">
         <v>36</v>
@@ -750,7 +744,7 @@
       <c r="H5">
         <v>35.6</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>31.5</v>
       </c>
       <c r="J5" s="2">
@@ -766,16 +760,16 @@
       <c r="N5" s="2">
         <v>0.91</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>16.7</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>9</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>21.4</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>6.6</v>
       </c>
       <c r="S5">
@@ -801,8 +795,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
+      <c r="B6">
+        <v>2</v>
       </c>
       <c r="C6">
         <v>39</v>
@@ -819,7 +813,7 @@
       <c r="H6">
         <v>29</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>13.5</v>
       </c>
       <c r="J6" s="1">
@@ -835,10 +829,10 @@
       <c r="N6" s="2">
         <v>0.83</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
       <c r="S6">
         <v>7</v>
       </c>
@@ -862,8 +856,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
+      <c r="B7">
+        <v>2</v>
       </c>
       <c r="C7">
         <v>55</v>
@@ -883,7 +877,7 @@
       <c r="H7">
         <v>33</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>17.100000000000001</v>
       </c>
       <c r="J7" s="1">
@@ -899,10 +893,10 @@
       <c r="N7" s="2">
         <v>0.61</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
       <c r="S7">
         <v>6</v>
       </c>
@@ -926,8 +920,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8">
         <v>66</v>
@@ -938,7 +932,7 @@
       <c r="G8">
         <v>27.8</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>20.9</v>
       </c>
       <c r="J8" s="1">
@@ -954,10 +948,10 @@
       <c r="N8" s="2">
         <v>0.8</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
       <c r="S8">
         <v>6</v>
       </c>
@@ -972,8 +966,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9">
         <v>48</v>
@@ -990,7 +984,7 @@
       <c r="H9">
         <v>23.8</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>20.8</v>
       </c>
       <c r="J9" s="1">
@@ -1006,10 +1000,10 @@
       <c r="N9" s="2">
         <v>0.89</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
       <c r="S9">
         <v>7</v>
       </c>
@@ -1033,8 +1027,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10">
         <v>40</v>
@@ -1048,7 +1042,7 @@
       <c r="G10">
         <v>36.799999999999997</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>5.4</v>
       </c>
       <c r="J10" s="1">
@@ -1064,10 +1058,10 @@
       <c r="N10" s="2">
         <v>0.82</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
       <c r="S10">
         <v>7</v>
       </c>
@@ -1082,8 +1076,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
+      <c r="B11">
+        <v>2</v>
       </c>
       <c r="C11">
         <v>48</v>
@@ -1103,7 +1097,7 @@
       <c r="H11">
         <v>36.299999999999997</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>30.1</v>
       </c>
       <c r="J11" s="1">
@@ -1118,16 +1112,16 @@
       <c r="N11" s="2">
         <v>0.83</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>34</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <v>0.4</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <v>33</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="5">
         <v>0.3</v>
       </c>
       <c r="S11">
@@ -1153,8 +1147,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
+      <c r="B12">
+        <v>2</v>
       </c>
       <c r="C12">
         <v>47</v>
@@ -1171,7 +1165,7 @@
       <c r="H12">
         <v>29.3</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>25.3</v>
       </c>
       <c r="J12" s="1">
@@ -1186,10 +1180,10 @@
       <c r="N12" s="2">
         <v>0.88</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
       <c r="S12">
         <v>8</v>
       </c>
@@ -1213,8 +1207,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
+      <c r="B13">
+        <v>2</v>
       </c>
       <c r="C13">
         <v>42</v>
@@ -1231,7 +1225,7 @@
       <c r="H13">
         <v>28.7</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>50.6</v>
       </c>
       <c r="J13" s="1">
@@ -1246,16 +1240,16 @@
       <c r="N13" s="2">
         <v>0.75</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>55</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>0.5</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>69</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="5">
         <v>0.6</v>
       </c>
       <c r="S13">
@@ -1281,8 +1275,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
+      <c r="B14">
+        <v>2</v>
       </c>
       <c r="C14">
         <v>37</v>
@@ -1299,7 +1293,7 @@
       <c r="H14">
         <v>27.4</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>9.9</v>
       </c>
       <c r="J14" s="1">
@@ -1314,10 +1308,10 @@
       <c r="N14" s="2">
         <v>0.87</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
       <c r="S14">
         <v>9</v>
       </c>
@@ -1341,8 +1335,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>20</v>
+      <c r="B15">
+        <v>2</v>
       </c>
       <c r="C15">
         <v>70</v>
@@ -1359,7 +1353,7 @@
       <c r="H15">
         <v>25.5</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>39.9</v>
       </c>
       <c r="J15" s="1">
@@ -1374,10 +1368,10 @@
       <c r="N15" s="2">
         <v>0.67</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
       <c r="S15">
         <v>9</v>
       </c>
@@ -1401,8 +1395,8 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>20</v>
+      <c r="B16">
+        <v>2</v>
       </c>
       <c r="C16">
         <v>69</v>
@@ -1422,7 +1416,7 @@
       <c r="H16">
         <v>27.6</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>30.7</v>
       </c>
       <c r="J16" s="1">
@@ -1437,10 +1431,10 @@
       <c r="N16" s="2">
         <v>0.8</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
       <c r="S16">
         <v>9</v>
       </c>
@@ -1464,8 +1458,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>20</v>
+      <c r="B17">
+        <v>2</v>
       </c>
       <c r="C17">
         <v>33</v>
@@ -1476,7 +1470,7 @@
       <c r="G17">
         <v>28.2</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>7.6</v>
       </c>
       <c r="J17" s="1">
@@ -1491,10 +1485,10 @@
       <c r="N17" s="2">
         <v>0.89</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
       <c r="S17">
         <v>10</v>
       </c>
@@ -1509,8 +1503,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>20</v>
+      <c r="B18">
+        <v>2</v>
       </c>
       <c r="C18">
         <v>43</v>
@@ -1530,7 +1524,7 @@
       <c r="H18">
         <v>41.9</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>121.5</v>
       </c>
       <c r="J18" s="1">
@@ -1548,16 +1542,16 @@
       <c r="N18" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <v>100</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="5">
         <v>100</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="5">
         <v>1.8</v>
       </c>
       <c r="S18">
@@ -1583,8 +1577,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>20</v>
+      <c r="B19">
+        <v>2</v>
       </c>
       <c r="C19">
         <v>70</v>
@@ -1604,7 +1598,7 @@
       <c r="H19">
         <v>35.9</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>11.5</v>
       </c>
       <c r="J19" s="1">
@@ -1619,10 +1613,10 @@
       <c r="N19" s="2">
         <v>0.84</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
       <c r="S19">
         <v>12</v>
       </c>
@@ -1646,8 +1640,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
+      <c r="B20">
+        <v>2</v>
       </c>
       <c r="C20">
         <v>33</v>
@@ -1664,7 +1658,7 @@
       <c r="H20">
         <v>40.9</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>15.2</v>
       </c>
       <c r="J20" s="1">
@@ -1679,10 +1673,10 @@
       <c r="N20" s="2">
         <v>0.88</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
       <c r="S20">
         <v>12</v>
       </c>
@@ -1706,8 +1700,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>20</v>
+      <c r="B21">
+        <v>2</v>
       </c>
       <c r="C21">
         <v>56</v>
@@ -1724,7 +1718,7 @@
       <c r="H21">
         <v>22.7</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>8.9</v>
       </c>
       <c r="J21" s="1">
@@ -1739,10 +1733,10 @@
       <c r="N21" s="2">
         <v>0.91</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
       <c r="S21">
         <v>2</v>
       </c>
@@ -1766,8 +1760,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>20</v>
+      <c r="B22">
+        <v>2</v>
       </c>
       <c r="C22">
         <v>65</v>
@@ -1784,7 +1778,7 @@
       <c r="H22">
         <v>30.1</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>28.1</v>
       </c>
       <c r="J22" s="1">
@@ -1799,16 +1793,16 @@
       <c r="N22" s="2">
         <v>0.8</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="5">
         <v>21</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="5">
         <v>3.3</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="5">
         <v>15</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="5">
         <v>2.8</v>
       </c>
       <c r="S22">
@@ -1834,8 +1828,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>20</v>
+      <c r="B23">
+        <v>2</v>
       </c>
       <c r="C23">
         <v>70</v>
@@ -1852,7 +1846,7 @@
       <c r="H23">
         <v>32.1</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>41</v>
       </c>
       <c r="J23" s="1">
@@ -1867,16 +1861,16 @@
       <c r="N23" s="2">
         <v>0.76</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="5">
         <v>41.4</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="5">
         <v>0.2</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="5">
         <v>64.3</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="5">
         <v>0.2</v>
       </c>
       <c r="S23">
@@ -1902,8 +1896,8 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>20</v>
+      <c r="B24">
+        <v>2</v>
       </c>
       <c r="C24">
         <v>47</v>
@@ -1923,7 +1917,7 @@
       <c r="H24">
         <v>26.4</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>49.2</v>
       </c>
       <c r="J24" s="1">
@@ -1938,10 +1932,10 @@
       <c r="N24" s="2">
         <v>0.81</v>
       </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
       <c r="S24">
         <v>5</v>
       </c>
@@ -1965,8 +1959,8 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>20</v>
+      <c r="B25">
+        <v>2</v>
       </c>
       <c r="C25">
         <v>42</v>
@@ -1983,7 +1977,7 @@
       <c r="H25">
         <v>31.9</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <v>74</v>
       </c>
       <c r="J25" s="1">
@@ -1998,10 +1992,10 @@
       <c r="N25" s="2">
         <v>0.68</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
       <c r="S25">
         <v>5</v>
       </c>
@@ -2025,8 +2019,8 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>20</v>
+      <c r="B26">
+        <v>2</v>
       </c>
       <c r="C26">
         <v>57</v>
@@ -2046,7 +2040,7 @@
       <c r="H26">
         <v>34.6</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <v>24.2</v>
       </c>
       <c r="J26" s="1">
@@ -2061,16 +2055,16 @@
       <c r="N26" s="2">
         <v>0.82</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="5">
         <v>0</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="5">
         <v>3.1</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q26" s="5">
         <v>0</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="5">
         <v>3.1</v>
       </c>
       <c r="S26">
@@ -2096,8 +2090,8 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>20</v>
+      <c r="B27">
+        <v>2</v>
       </c>
       <c r="C27">
         <v>51</v>
@@ -2117,7 +2111,7 @@
       <c r="H27">
         <v>24.9</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <v>13.2</v>
       </c>
       <c r="J27" s="1">
@@ -2132,16 +2126,16 @@
       <c r="N27" s="2">
         <v>0.86</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="5">
         <v>10</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="5">
         <v>6.1</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="Q27" s="5">
         <v>25</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R27" s="5">
         <v>4.3</v>
       </c>
       <c r="S27">
@@ -2167,8 +2161,8 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>20</v>
+      <c r="B28">
+        <v>2</v>
       </c>
       <c r="C28">
         <v>46</v>
@@ -2188,7 +2182,7 @@
       <c r="H28">
         <v>39.5</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="4">
         <v>5.7</v>
       </c>
       <c r="J28" s="1">
@@ -2203,16 +2197,16 @@
       <c r="N28" s="2">
         <v>0.85</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="5">
         <v>26</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="5">
         <v>1.6</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q28" s="5">
         <v>100</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28" s="5">
         <v>1.7</v>
       </c>
       <c r="S28">
@@ -2238,8 +2232,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>20</v>
+      <c r="B29">
+        <v>2</v>
       </c>
       <c r="C29">
         <v>46</v>
@@ -2259,7 +2253,7 @@
       <c r="H29">
         <v>47.6</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <v>78.900000000000006</v>
       </c>
       <c r="J29" s="1">
@@ -2274,16 +2268,16 @@
       <c r="N29" s="2">
         <v>0.82</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="5">
         <v>83</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="5">
         <v>0.3</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="Q29" s="5">
         <v>100</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R29" s="5">
         <v>0.4</v>
       </c>
       <c r="S29">
@@ -2309,8 +2303,8 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>20</v>
+      <c r="B30">
+        <v>2</v>
       </c>
       <c r="C30">
         <v>34</v>
@@ -2330,7 +2324,7 @@
       <c r="H30">
         <v>49.3</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="4">
         <v>42.1</v>
       </c>
       <c r="J30" s="1">
@@ -2345,10 +2339,10 @@
       <c r="N30" s="2">
         <v>0.87</v>
       </c>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
       <c r="S30">
         <v>10</v>
       </c>
@@ -2372,8 +2366,8 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>20</v>
+      <c r="B31">
+        <v>2</v>
       </c>
       <c r="C31">
         <v>67</v>
@@ -2390,7 +2384,7 @@
       <c r="H31">
         <v>32.799999999999997</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <v>10.199999999999999</v>
       </c>
       <c r="J31" s="1">
@@ -2408,16 +2402,16 @@
       <c r="N31" s="2">
         <v>0.82</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="5">
         <v>50</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="5">
         <v>0.9</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="Q31" s="5">
         <v>50</v>
       </c>
-      <c r="R31" s="6">
+      <c r="R31" s="5">
         <v>0.9</v>
       </c>
       <c r="S31">
@@ -2443,8 +2437,8 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>20</v>
+      <c r="B32">
+        <v>2</v>
       </c>
       <c r="C32">
         <v>45</v>
@@ -2464,7 +2458,7 @@
       <c r="H32">
         <v>42.1</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <v>55</v>
       </c>
       <c r="J32" s="1">
@@ -2479,16 +2473,16 @@
       <c r="N32" s="2">
         <v>0.74</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="5">
         <v>30</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="5">
         <v>3.5</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="5">
         <v>64.3</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32" s="5">
         <v>3.5</v>
       </c>
       <c r="S32">
@@ -2514,8 +2508,8 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>20</v>
+      <c r="B33">
+        <v>2</v>
       </c>
       <c r="C33">
         <v>68</v>
@@ -2532,7 +2526,7 @@
       <c r="H33">
         <v>40</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <v>81.599999999999994</v>
       </c>
       <c r="J33" s="1">
@@ -2547,16 +2541,16 @@
       <c r="N33" s="2">
         <v>0.76</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="5">
         <v>20</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="5">
         <v>0.7</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q33" s="5">
         <v>28</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R33" s="5">
         <v>1.4</v>
       </c>
       <c r="S33">
@@ -2582,8 +2576,8 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>20</v>
+      <c r="B34">
+        <v>2</v>
       </c>
       <c r="C34">
         <v>59</v>
@@ -2600,7 +2594,7 @@
       <c r="H34">
         <v>40.4</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <v>66.7</v>
       </c>
       <c r="J34" s="1">
@@ -2615,16 +2609,16 @@
       <c r="N34" s="2">
         <v>0.7</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="5">
         <v>46</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="5">
         <v>9.5</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="Q34" s="5">
         <v>28</v>
       </c>
-      <c r="R34" s="6">
+      <c r="R34" s="5">
         <v>10.7</v>
       </c>
       <c r="S34">
@@ -2650,8 +2644,8 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>20</v>
+      <c r="B35">
+        <v>2</v>
       </c>
       <c r="C35">
         <v>70</v>
@@ -2668,7 +2662,7 @@
       <c r="H35">
         <v>22.8</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <v>79.900000000000006</v>
       </c>
       <c r="J35" s="2">
@@ -2683,14 +2677,14 @@
       <c r="N35" s="2">
         <v>0.88</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="5">
         <v>23.3</v>
       </c>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6">
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5">
         <v>14.3</v>
       </c>
-      <c r="R35" s="6"/>
+      <c r="R35" s="5"/>
       <c r="S35">
         <v>9</v>
       </c>
@@ -2714,8 +2708,8 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>20</v>
+      <c r="B36">
+        <v>2</v>
       </c>
       <c r="C36">
         <v>55</v>
@@ -2732,7 +2726,7 @@
       <c r="H36">
         <v>38.4</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="4">
         <v>36</v>
       </c>
       <c r="J36" s="2">
@@ -2747,16 +2741,16 @@
       <c r="N36" s="2">
         <v>0.77</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="5">
         <v>20</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="5">
         <v>0.2</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="Q36" s="5">
         <v>7</v>
       </c>
-      <c r="R36" s="6">
+      <c r="R36" s="5">
         <v>0.1</v>
       </c>
       <c r="S36">
@@ -2782,8 +2776,8 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>20</v>
+      <c r="B37">
+        <v>2</v>
       </c>
       <c r="C37">
         <v>57</v>
@@ -2800,7 +2794,7 @@
       <c r="H37">
         <v>35.799999999999997</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="4">
         <v>16.600000000000001</v>
       </c>
       <c r="J37" s="1">
@@ -2818,10 +2812,10 @@
       <c r="N37" s="2">
         <v>0.85</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="5">
         <v>80</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="5">
         <v>4</v>
       </c>
       <c r="S37">
